--- a/Экономика/2.3. Определение ожидаемого прироста прибыли в результате внедрения ПП.xlsx
+++ b/Экономика/2.3. Определение ожидаемого прироста прибыли в результате внедрения ПП.xlsx
@@ -367,9 +367,14 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="4">
+          <cell r="C4">
+            <v>687817559.76470602</v>
+          </cell>
+        </row>
         <row r="7">
           <cell r="C7">
-            <v>171954389.9411765</v>
+            <v>687817559.76470602</v>
           </cell>
         </row>
       </sheetData>
@@ -390,14 +395,19 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="5">
+          <cell r="C5">
+            <v>2.7683333333333335</v>
+          </cell>
+        </row>
         <row r="26">
           <cell r="C26">
-            <v>121857975.61618139</v>
+            <v>487431902.46472555</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -693,11 +703,12 @@
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="23" max="23" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -710,7 +721,7 @@
       </c>
       <c r="W1" s="1">
         <f>[1]Лист1!C7</f>
-        <v>171954389.9411765</v>
+        <v>687817559.76470602</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -722,7 +733,7 @@
       </c>
       <c r="W2" s="1">
         <f>[2]Лист1!C26</f>
-        <v>121857975.61618139</v>
+        <v>487431902.46472555</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -734,7 +745,7 @@
       </c>
       <c r="C4" s="2">
         <f>(W1-W2)*(1-C5)</f>
-        <v>41079059.746495999</v>
+        <v>164316238.985984</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
